--- a/data/Mesomicromacro Biomass conversions.xlsx
+++ b/data/Mesomicromacro Biomass conversions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawater-my.sharepoint.com/personal/rosemary_hartman_water_ca_gov/Documents/synthesis coodination group/sdwsc/SDWSC/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{5AB75278-5693-4CF5-9F03-68B9D348CD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF6794DA-0997-484B-B1FA-921E80E69F96}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{5AB75278-5693-4CF5-9F03-68B9D348CD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5138A568-A564-4DE4-99F9-CF534A8E064B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Micro and Meso-zooplankton" sheetId="2" r:id="rId1"/>
@@ -1582,8 +1582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E689D54-14E1-4511-9AF6-F8307BF390D6}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1634,108 +1634,107 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>42</v>
+      <c r="A2" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="6">
-        <v>200</v>
-      </c>
-      <c r="F2" s="6">
+        <v>55</v>
+      </c>
+      <c r="E2" s="3">
+        <v>108</v>
+      </c>
+      <c r="F2" s="14">
         <v>2</v>
       </c>
-      <c r="G2" s="6">
-        <v>9</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1.03E-2</v>
-      </c>
-      <c r="I2" s="3">
-        <v>2.2593000000000001</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>59</v>
+      <c r="G2" s="14">
+        <v>6.5</v>
+      </c>
+      <c r="H2" s="15">
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="I2" s="16">
+        <v>2.6458651999999998</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>41</v>
+      <c r="A3" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="6">
-        <v>700</v>
-      </c>
-      <c r="F3" s="6">
-        <v>2</v>
-      </c>
-      <c r="G3" s="6">
-        <v>16</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="I3" s="3">
-        <v>3.2532999999999999</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="E3" s="3">
+        <v>25</v>
+      </c>
+      <c r="F3" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="G3" s="14">
+        <v>5.9</v>
+      </c>
+      <c r="H3" s="15">
+        <v>3.1699999999999998E-5</v>
+      </c>
+      <c r="I3" s="16">
+        <v>2.4761397999999999</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="6">
-        <v>63</v>
-      </c>
-      <c r="F4" s="6">
-        <v>7.4</v>
-      </c>
-      <c r="G4" s="6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="H4" s="3">
-        <f>EXP(-5.02)</f>
-        <v>6.6045267093148112E-3</v>
-      </c>
-      <c r="I4" s="3">
-        <v>2.57</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="E4" s="3">
+        <v>367</v>
+      </c>
+      <c r="F4" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="G4" s="14">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H4" s="15">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="I4" s="16">
+        <v>2.8963214000000002</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>43</v>
+      <c r="A5" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>53</v>
@@ -1744,7 +1743,7 @@
         <v>55</v>
       </c>
       <c r="E5" s="3">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="F5" s="14">
         <v>2</v>
@@ -1753,53 +1752,53 @@
         <v>6.5</v>
       </c>
       <c r="H5" s="15">
-        <v>3.3000000000000003E-5</v>
+        <v>3.0700000000000001E-5</v>
       </c>
       <c r="I5" s="16">
-        <v>2.6458651999999998</v>
+        <v>2.6305483999999999</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>43</v>
+      <c r="A6" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E6" s="3">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="F6" s="14">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G6" s="14">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="H6" s="15">
-        <v>2.1999999999999999E-5</v>
+        <v>9.3000000000000007E-6</v>
       </c>
       <c r="I6" s="16">
-        <v>2.8256119000000002</v>
+        <v>3.2843296999999998</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
-        <v>45</v>
+      <c r="A7" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>53</v>
@@ -1808,83 +1807,83 @@
         <v>55</v>
       </c>
       <c r="E7" s="3">
-        <v>25</v>
+        <v>209</v>
       </c>
       <c r="F7" s="14">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="G7" s="14">
-        <v>5.9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H7" s="15">
-        <v>3.1699999999999998E-5</v>
+        <v>1.63E-5</v>
       </c>
       <c r="I7" s="16">
-        <v>2.4761397999999999</v>
+        <v>3.0492894000000001</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>45</v>
+      <c r="A8" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E8" s="3">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="F8" s="14">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="G8" s="14">
-        <v>7.8</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H8" s="15">
-        <v>4.4299999999999999E-5</v>
+        <v>1.2E-5</v>
       </c>
       <c r="I8" s="16">
-        <v>2.202537</v>
+        <v>3.2246939999999999</v>
       </c>
       <c r="J8" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
-        <v>44</v>
+      <c r="A9" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E9" s="3">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c r="F9" s="14">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="G9" s="14">
-        <v>6.2</v>
+        <v>10</v>
       </c>
       <c r="H9" s="15">
-        <v>2.3900000000000002E-5</v>
+        <v>3.3399999999999999E-5</v>
       </c>
       <c r="I9" s="16">
-        <v>2.7388843999999999</v>
+        <v>2.5935991999999999</v>
       </c>
       <c r="J9" s="17" t="s">
         <v>86</v>
@@ -1892,10 +1891,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>53</v>
@@ -1904,94 +1903,94 @@
         <v>55</v>
       </c>
       <c r="E10" s="3">
-        <v>367</v>
-      </c>
-      <c r="F10" s="14">
-        <v>1.9</v>
-      </c>
-      <c r="G10" s="14">
-        <v>10.199999999999999</v>
+        <v>50</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="G10" s="3">
+        <v>9.5</v>
       </c>
       <c r="H10" s="15">
-        <v>2.0999999999999999E-5</v>
+        <v>1.1600000000000001E-5</v>
       </c>
       <c r="I10" s="16">
-        <v>2.8963214000000002</v>
+        <v>3.0595469</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>40</v>
+      <c r="A11" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="3">
-        <v>599</v>
+        <v>19</v>
       </c>
       <c r="F11" s="14">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="14">
-        <v>9.6999999999999993</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H11" s="15">
-        <v>2.2500000000000001E-5</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="I11" s="16">
-        <v>2.7443140000000001</v>
+        <v>2.6410646999999998</v>
       </c>
       <c r="J11" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>39</v>
+      <c r="A12" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="3">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F12" s="14">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G12" s="14">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="H12" s="15">
-        <v>3.0700000000000001E-5</v>
+        <v>2.1999999999999999E-5</v>
       </c>
       <c r="I12" s="16">
-        <v>2.6305483999999999</v>
+        <v>2.8256119000000002</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>39</v>
+      <c r="A13" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>52</v>
@@ -2000,51 +1999,51 @@
         <v>55</v>
       </c>
       <c r="E13" s="3">
-        <v>292</v>
+        <v>57</v>
       </c>
       <c r="F13" s="14">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G13" s="14">
         <v>7.8</v>
       </c>
       <c r="H13" s="15">
-        <v>1.9899999999999999E-5</v>
+        <v>4.4299999999999999E-5</v>
       </c>
       <c r="I13" s="16">
-        <v>2.8436471000000001</v>
+        <v>2.202537</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>65</v>
+      <c r="A14" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E14" s="3">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="F14" s="14">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="G14" s="14">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="H14" s="15">
-        <v>9.3000000000000007E-6</v>
+        <v>2.3900000000000002E-5</v>
       </c>
       <c r="I14" s="16">
-        <v>3.2843296999999998</v>
+        <v>2.7388843999999999</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>86</v>
@@ -2052,31 +2051,31 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E15" s="3">
-        <v>209</v>
+        <v>599</v>
       </c>
       <c r="F15" s="14">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="G15" s="14">
-        <v>10.199999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H15" s="15">
-        <v>1.63E-5</v>
+        <v>2.2500000000000001E-5</v>
       </c>
       <c r="I15" s="16">
-        <v>3.0492894000000001</v>
+        <v>2.7443140000000001</v>
       </c>
       <c r="J15" s="17" t="s">
         <v>86</v>
@@ -2084,10 +2083,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>52</v>
@@ -2096,51 +2095,51 @@
         <v>55</v>
       </c>
       <c r="E16" s="3">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F16" s="14">
         <v>2.1</v>
       </c>
       <c r="G16" s="14">
-        <v>9.6999999999999993</v>
+        <v>7.8</v>
       </c>
       <c r="H16" s="15">
-        <v>2.51E-5</v>
+        <v>1.9899999999999999E-5</v>
       </c>
       <c r="I16" s="16">
-        <v>2.6718519000000001</v>
+        <v>2.8436471000000001</v>
       </c>
       <c r="J16" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
-        <v>38</v>
+      <c r="A17" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E17" s="3">
-        <v>84</v>
+        <v>307</v>
       </c>
       <c r="F17" s="14">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G17" s="14">
-        <v>10.199999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H17" s="15">
-        <v>1.2E-5</v>
+        <v>2.51E-5</v>
       </c>
       <c r="I17" s="16">
-        <v>3.2246939999999999</v>
+        <v>2.6718519000000001</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>86</v>
@@ -2179,64 +2178,64 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>66</v>
+      <c r="A19" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E19" s="3">
-        <v>39</v>
-      </c>
-      <c r="F19" s="14">
-        <v>1.9</v>
+        <v>107</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2.9</v>
       </c>
       <c r="G19" s="14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H19" s="15">
-        <v>3.3399999999999999E-5</v>
+        <v>5.4E-6</v>
       </c>
       <c r="I19" s="16">
-        <v>2.5935991999999999</v>
+        <v>3.2323621999999999</v>
       </c>
       <c r="J19" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>42</v>
+      <c r="A20" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="3">
-        <v>50</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="G20" s="3">
-        <v>9.5</v>
+        <v>109</v>
+      </c>
+      <c r="F20" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="G20" s="14">
+        <v>4.3</v>
       </c>
       <c r="H20" s="15">
-        <v>1.1600000000000001E-5</v>
+        <v>1.7399999999999999E-5</v>
       </c>
       <c r="I20" s="16">
-        <v>3.0595469</v>
+        <v>2.8712141999999998</v>
       </c>
       <c r="J20" s="17" t="s">
         <v>86</v>
@@ -2253,89 +2252,90 @@
         <v>52</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="3">
-        <v>107</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="G21" s="14">
-        <v>11</v>
-      </c>
-      <c r="H21" s="15">
-        <v>5.4E-6</v>
-      </c>
-      <c r="I21" s="16">
-        <v>3.2323621999999999</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="E21" s="6">
+        <v>200</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2</v>
+      </c>
+      <c r="G21" s="6">
+        <v>9</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1.03E-2</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2.2593000000000001</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>64</v>
+      <c r="A22" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="3">
-        <v>109</v>
-      </c>
-      <c r="F22" s="14">
-        <v>2.1</v>
-      </c>
-      <c r="G22" s="14">
-        <v>4.3</v>
-      </c>
-      <c r="H22" s="15">
-        <v>1.7399999999999999E-5</v>
-      </c>
-      <c r="I22" s="16">
-        <v>2.8712141999999998</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="E22" s="6">
+        <v>700</v>
+      </c>
+      <c r="F22" s="6">
+        <v>2</v>
+      </c>
+      <c r="G22" s="6">
+        <v>16</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3.2532999999999999</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>67</v>
+      <c r="A23" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="3">
-        <v>19</v>
-      </c>
-      <c r="F23" s="14">
-        <v>2</v>
-      </c>
-      <c r="G23" s="14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H23" s="15">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="I23" s="16">
-        <v>2.6410646999999998</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="E23" s="6">
+        <v>63</v>
+      </c>
+      <c r="F23" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="G23" s="6">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H23" s="3">
+        <f>EXP(-5.02)</f>
+        <v>6.6045267093148112E-3</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2.57</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -2373,10 +2373,10 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J24">
-    <sortCondition ref="D2:D24"/>
+    <sortCondition ref="J2:J24"/>
     <sortCondition ref="C2:C24"/>
     <sortCondition ref="A2:A24"/>
-    <sortCondition ref="J2:J24"/>
+    <sortCondition ref="B2:B24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2387,7 +2387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10315D98-AAB3-4EAB-B28A-8EAA353614A4}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/data/Mesomicromacro Biomass conversions.xlsx
+++ b/data/Mesomicromacro Biomass conversions.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawater-my.sharepoint.com/personal/rosemary_hartman_water_ca_gov/Documents/synthesis coodination group/sdwsc/SDWSC/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cburdi\Documents\Data\SDWSC Synthesis\SDWSC Zoop\Analysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{5AB75278-5693-4CF5-9F03-68B9D348CD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5138A568-A564-4DE4-99F9-CF534A8E064B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C5F4D2-ED94-4F46-BB6B-E6A2CDEB9DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Micro and Meso-zooplankton" sheetId="2" r:id="rId1"/>
     <sheet name="Macro-zooplankton" sheetId="3" r:id="rId2"/>
-    <sheet name="crosswalk" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Macro-zooplankton'!$A$1:$J$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Macro-zooplankton'!$A$1:$L$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Micro and Meso-zooplankton'!$A$1:$A$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="95">
   <si>
     <t>Taxname</t>
   </si>
@@ -213,9 +212,6 @@
     <t>Dry</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
@@ -315,43 +311,33 @@
     <t>CDFW, unpublished</t>
   </si>
   <si>
-    <t>PreyType</t>
-  </si>
-  <si>
-    <t>Corophium type</t>
-  </si>
-  <si>
-    <t>Gammarus type</t>
-  </si>
-  <si>
-    <t>Unid amphipod</t>
-  </si>
-  <si>
-    <t>PreyConversion</t>
-  </si>
-  <si>
-    <t>Unid mysids</t>
-  </si>
-  <si>
-    <t>IBMR</t>
-  </si>
-  <si>
-    <t>mysid</t>
+    <t>a_mg</t>
+  </si>
+  <si>
+    <t>a_grams</t>
+  </si>
+  <si>
+    <t>MacroCategory</t>
   </si>
   <si>
     <t>amphipod</t>
+  </si>
+  <si>
+    <t>mysids</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000000000"/>
+    <numFmt numFmtId="168" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,14 +387,8 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,8 +401,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -454,6 +440,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -464,7 +463,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -497,8 +496,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -793,14 +800,14 @@
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" style="3"/>
+    <col min="1" max="1" width="27.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="3"/>
     <col min="3" max="3" width="13.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="3" customWidth="1"/>
     <col min="5" max="5" width="213" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.08984375" style="3"/>
+    <col min="6" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -822,7 +829,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
@@ -834,7 +841,7 @@
         <v>3.36</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -907,7 +914,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -919,7 +926,7 @@
         <v>0.3</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -941,7 +948,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -953,12 +960,12 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -970,7 +977,7 @@
         <v>1.5</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -992,7 +999,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1004,12 +1011,12 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1021,12 +1028,12 @@
         <v>3.36</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1038,7 +1045,7 @@
         <v>1.68</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -1106,7 +1113,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -1179,7 +1186,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>5</v>
@@ -1191,7 +1198,7 @@
         <v>0.04</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1276,7 +1283,7 @@
         <v>8.8663036902600939E-2</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1293,7 +1300,7 @@
         <v>0.04</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1361,12 +1368,12 @@
         <v>0.5</v>
       </c>
       <c r="E33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>5</v>
@@ -1378,7 +1385,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -1451,7 +1458,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>5</v>
@@ -1463,7 +1470,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -1502,7 +1509,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>5</v>
@@ -1514,7 +1521,7 @@
         <v>0.12</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -1531,7 +1538,7 @@
         <v>15.89</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -1548,12 +1555,12 @@
         <v>7.95</v>
       </c>
       <c r="E44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>5</v>
@@ -1565,7 +1572,7 @@
         <v>0.12</v>
       </c>
       <c r="E45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1580,1194 +1587,949 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E689D54-14E1-4511-9AF6-F8307BF390D6}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="27.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="178.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="27.6328125" style="3"/>
+    <col min="1" max="1" width="29.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.26953125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="178.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="27.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="6">
+        <v>200</v>
+      </c>
+      <c r="G2" s="6">
+        <v>2</v>
+      </c>
+      <c r="H2" s="6">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1.0300000000000001E-6</v>
+      </c>
+      <c r="J2" s="18">
+        <v>1.03E-2</v>
+      </c>
+      <c r="K2" s="3">
+        <v>2.2593000000000001</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="6">
+        <v>700</v>
+      </c>
+      <c r="G3" s="6">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="J3" s="18">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="K3" s="3">
+        <v>3.2532999999999999</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="6">
         <v>63</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G4" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="H4" s="6">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I4" s="21">
+        <v>6.6045267093148111E-6</v>
+      </c>
+      <c r="J4" s="18">
+        <v>6.6045267093148112E-3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2.57</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="3">
+        <v>108</v>
+      </c>
+      <c r="G5" s="14">
+        <v>2</v>
+      </c>
+      <c r="H5" s="14">
+        <v>6.5</v>
+      </c>
+      <c r="I5" s="15">
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="J5" s="18">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K5" s="16">
+        <v>2.6458651999999998</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="3">
+        <v>113</v>
+      </c>
+      <c r="G6" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="H6" s="14">
+        <v>7.5</v>
+      </c>
+      <c r="I6" s="15">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="J6" s="19">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K6" s="16">
+        <v>2.8256119000000002</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="3">
+        <v>25</v>
+      </c>
+      <c r="G7" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="H7" s="14">
+        <v>5.9</v>
+      </c>
+      <c r="I7" s="15">
+        <v>3.1699999999999998E-5</v>
+      </c>
+      <c r="J7" s="19">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="K7" s="16">
+        <v>2.4761397999999999</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="3">
         <v>57</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="G8" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H8" s="14">
+        <v>7.8</v>
+      </c>
+      <c r="I8" s="15">
+        <v>4.4299999999999999E-5</v>
+      </c>
+      <c r="J8" s="19">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="K8" s="16">
+        <v>2.202537</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="3">
+        <v>196</v>
+      </c>
+      <c r="G9" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="H9" s="14">
+        <v>6.2</v>
+      </c>
+      <c r="I9" s="15">
+        <v>2.3900000000000002E-5</v>
+      </c>
+      <c r="J9" s="19">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="K9" s="16">
+        <v>2.7388843999999999</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="3">
-        <v>108</v>
-      </c>
-      <c r="F2" s="14">
+      <c r="F10" s="3">
+        <v>367</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="H10" s="14">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I10" s="15">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="J10" s="19">
+        <v>2.0999999999999998E-2</v>
+      </c>
+      <c r="K10" s="16">
+        <v>2.8963214000000002</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="3">
+        <v>599</v>
+      </c>
+      <c r="G11" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="H11" s="14">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I11" s="15">
+        <v>2.2500000000000001E-5</v>
+      </c>
+      <c r="J11" s="19">
+        <v>2.2500000000000003E-2</v>
+      </c>
+      <c r="K11" s="16">
+        <v>2.7443140000000001</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="3">
+        <v>156</v>
+      </c>
+      <c r="G12" s="14">
         <v>2</v>
       </c>
-      <c r="G2" s="14">
+      <c r="H12" s="14">
         <v>6.5</v>
       </c>
-      <c r="H2" s="15">
-        <v>3.3000000000000003E-5</v>
-      </c>
-      <c r="I2" s="16">
-        <v>2.6458651999999998</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="I12" s="15">
+        <v>3.0700000000000001E-5</v>
+      </c>
+      <c r="J12" s="19">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="K12" s="16">
+        <v>2.6305483999999999</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="3">
+        <v>292</v>
+      </c>
+      <c r="G13" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="H13" s="14">
+        <v>7.8</v>
+      </c>
+      <c r="I13" s="15">
+        <v>1.9899999999999999E-5</v>
+      </c>
+      <c r="J13" s="19">
+        <v>1.9899999999999998E-2</v>
+      </c>
+      <c r="K13" s="16">
+        <v>2.8436471000000001</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="3">
-        <v>25</v>
-      </c>
-      <c r="F3" s="14">
+      <c r="F14" s="3">
+        <v>37</v>
+      </c>
+      <c r="G14" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H14" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="I14" s="15">
+        <v>9.3000000000000007E-6</v>
+      </c>
+      <c r="J14" s="19">
+        <v>9.300000000000001E-3</v>
+      </c>
+      <c r="K14" s="16">
+        <v>3.2843296999999998</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="3">
+        <v>209</v>
+      </c>
+      <c r="G15" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="H15" s="14">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I15" s="15">
+        <v>1.63E-5</v>
+      </c>
+      <c r="J15" s="19">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="K15" s="16">
+        <v>3.0492894000000001</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="3">
+        <v>307</v>
+      </c>
+      <c r="G16" s="14">
         <v>2.1</v>
       </c>
-      <c r="G3" s="14">
-        <v>5.9</v>
-      </c>
-      <c r="H3" s="15">
-        <v>3.1699999999999998E-5</v>
-      </c>
-      <c r="I3" s="16">
-        <v>2.4761397999999999</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="H16" s="14">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I16" s="15">
+        <v>2.51E-5</v>
+      </c>
+      <c r="J16" s="19">
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="K16" s="16">
+        <v>2.6718519000000001</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="3">
-        <v>367</v>
-      </c>
-      <c r="F4" s="14">
-        <v>1.9</v>
-      </c>
-      <c r="G4" s="14">
+      <c r="F17" s="3">
+        <v>84</v>
+      </c>
+      <c r="G17" s="14">
+        <v>2</v>
+      </c>
+      <c r="H17" s="14">
         <v>10.199999999999999</v>
       </c>
-      <c r="H4" s="15">
-        <v>2.0999999999999999E-5</v>
-      </c>
-      <c r="I4" s="16">
-        <v>2.8963214000000002</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="3">
-        <v>156</v>
-      </c>
-      <c r="F5" s="14">
-        <v>2</v>
-      </c>
-      <c r="G5" s="14">
-        <v>6.5</v>
-      </c>
-      <c r="H5" s="15">
-        <v>3.0700000000000001E-5</v>
-      </c>
-      <c r="I5" s="16">
-        <v>2.6305483999999999</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="3">
-        <v>37</v>
-      </c>
-      <c r="F6" s="14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G6" s="14">
-        <v>5.5</v>
-      </c>
-      <c r="H6" s="15">
-        <v>9.3000000000000007E-6</v>
-      </c>
-      <c r="I6" s="16">
-        <v>3.2843296999999998</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="3">
-        <v>209</v>
-      </c>
-      <c r="F7" s="14">
-        <v>1.9</v>
-      </c>
-      <c r="G7" s="14">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="H7" s="15">
-        <v>1.63E-5</v>
-      </c>
-      <c r="I7" s="16">
-        <v>3.0492894000000001</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="3">
-        <v>84</v>
-      </c>
-      <c r="F8" s="14">
-        <v>2</v>
-      </c>
-      <c r="G8" s="14">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="H8" s="15">
+      <c r="I17" s="15">
         <v>1.2E-5</v>
       </c>
-      <c r="I8" s="16">
+      <c r="J17" s="19">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K17" s="16">
         <v>3.2246939999999999</v>
       </c>
-      <c r="J8" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="3">
-        <v>39</v>
-      </c>
-      <c r="F9" s="14">
-        <v>1.9</v>
-      </c>
-      <c r="G9" s="14">
-        <v>10</v>
-      </c>
-      <c r="H9" s="15">
-        <v>3.3399999999999999E-5</v>
-      </c>
-      <c r="I9" s="16">
-        <v>2.5935991999999999</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="3">
-        <v>50</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="G10" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="H10" s="15">
-        <v>1.1600000000000001E-5</v>
-      </c>
-      <c r="I10" s="16">
-        <v>3.0595469</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="3">
-        <v>19</v>
-      </c>
-      <c r="F11" s="14">
-        <v>2</v>
-      </c>
-      <c r="G11" s="14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H11" s="15">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="I11" s="16">
-        <v>2.6410646999999998</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="3">
-        <v>113</v>
-      </c>
-      <c r="F12" s="14">
-        <v>2.1</v>
-      </c>
-      <c r="G12" s="14">
-        <v>7.5</v>
-      </c>
-      <c r="H12" s="15">
-        <v>2.1999999999999999E-5</v>
-      </c>
-      <c r="I12" s="16">
-        <v>2.8256119000000002</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="3">
-        <v>57</v>
-      </c>
-      <c r="F13" s="14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G13" s="14">
-        <v>7.8</v>
-      </c>
-      <c r="H13" s="15">
-        <v>4.4299999999999999E-5</v>
-      </c>
-      <c r="I13" s="16">
-        <v>2.202537</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="3">
-        <v>196</v>
-      </c>
-      <c r="F14" s="14">
-        <v>2.1</v>
-      </c>
-      <c r="G14" s="14">
-        <v>6.2</v>
-      </c>
-      <c r="H14" s="15">
-        <v>2.3900000000000002E-5</v>
-      </c>
-      <c r="I14" s="16">
-        <v>2.7388843999999999</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="3">
-        <v>599</v>
-      </c>
-      <c r="F15" s="14">
-        <v>2.1</v>
-      </c>
-      <c r="G15" s="14">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="H15" s="15">
-        <v>2.2500000000000001E-5</v>
-      </c>
-      <c r="I15" s="16">
-        <v>2.7443140000000001</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="3">
-        <v>292</v>
-      </c>
-      <c r="F16" s="14">
-        <v>2.1</v>
-      </c>
-      <c r="G16" s="14">
-        <v>7.8</v>
-      </c>
-      <c r="H16" s="15">
-        <v>1.9899999999999999E-5</v>
-      </c>
-      <c r="I16" s="16">
-        <v>2.8436471000000001</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="3">
-        <v>307</v>
-      </c>
-      <c r="F17" s="14">
-        <v>2.1</v>
-      </c>
-      <c r="G17" s="14">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="H17" s="15">
-        <v>2.51E-5</v>
-      </c>
-      <c r="I17" s="16">
-        <v>2.6718519000000001</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L17" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>106</v>
       </c>
-      <c r="F18" s="14">
+      <c r="G18" s="14">
         <v>3.3</v>
       </c>
-      <c r="G18" s="14">
+      <c r="H18" s="14">
         <v>9.6999999999999993</v>
       </c>
-      <c r="H18" s="15">
+      <c r="I18" s="15">
         <v>7.4000000000000003E-6</v>
       </c>
-      <c r="I18" s="16">
+      <c r="J18" s="19">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="K18" s="16">
         <v>3.2745017999999999</v>
       </c>
-      <c r="J18" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+      <c r="L18" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="3">
+        <v>39</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="H19" s="14">
+        <v>10</v>
+      </c>
+      <c r="I19" s="15">
+        <v>3.3399999999999999E-5</v>
+      </c>
+      <c r="J19" s="19">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="K19" s="16">
+        <v>2.5935991999999999</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="B20" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="3">
-        <v>107</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="G19" s="14">
-        <v>11</v>
-      </c>
-      <c r="H19" s="15">
-        <v>5.4E-6</v>
-      </c>
-      <c r="I19" s="16">
-        <v>3.2323621999999999</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="3">
-        <v>109</v>
-      </c>
-      <c r="F20" s="14">
-        <v>2.1</v>
-      </c>
-      <c r="G20" s="14">
-        <v>4.3</v>
-      </c>
-      <c r="H20" s="15">
-        <v>1.7399999999999999E-5</v>
-      </c>
-      <c r="I20" s="16">
-        <v>2.8712141999999998</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F20" s="3">
+        <v>50</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="H20" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="I20" s="15">
+        <v>1.1600000000000001E-5</v>
+      </c>
+      <c r="J20" s="19">
+        <v>1.1600000000000001E-2</v>
+      </c>
+      <c r="K20" s="16">
+        <v>3.0595469</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="6">
-        <v>200</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="E21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="3">
+        <v>107</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="H21" s="14">
+        <v>11</v>
+      </c>
+      <c r="I21" s="15">
+        <v>5.4E-6</v>
+      </c>
+      <c r="J21" s="19">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="K21" s="16">
+        <v>3.2323621999999999</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="3">
+        <v>109</v>
+      </c>
+      <c r="G22" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="H22" s="14">
+        <v>4.3</v>
+      </c>
+      <c r="I22" s="15">
+        <v>1.7399999999999999E-5</v>
+      </c>
+      <c r="J22" s="19">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="K22" s="16">
+        <v>2.8712141999999998</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="3">
+        <v>19</v>
+      </c>
+      <c r="G23" s="14">
         <v>2</v>
       </c>
-      <c r="G21" s="6">
-        <v>9</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1.03E-2</v>
-      </c>
-      <c r="I21" s="3">
-        <v>2.2593000000000001</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="6">
-        <v>700</v>
-      </c>
-      <c r="F22" s="6">
-        <v>2</v>
-      </c>
-      <c r="G22" s="6">
-        <v>16</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="I22" s="3">
-        <v>3.2532999999999999</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="6">
-        <v>63</v>
-      </c>
-      <c r="F23" s="6">
-        <v>7.4</v>
-      </c>
-      <c r="G23" s="6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="H23" s="3">
-        <f>EXP(-5.02)</f>
-        <v>6.6045267093148112E-3</v>
-      </c>
-      <c r="I23" s="3">
-        <v>2.57</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H23" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I23" s="15">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="J23" s="19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K23" s="16">
+        <v>2.6410646999999998</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="6">
+      <c r="F24" s="6">
         <v>63</v>
       </c>
-      <c r="F24" s="6">
+      <c r="G24" s="6">
         <v>7.4</v>
       </c>
-      <c r="G24" s="6">
+      <c r="H24" s="6">
         <v>16.399999999999999</v>
       </c>
-      <c r="H24" s="3">
-        <f>EXP(-6.08)</f>
+      <c r="I24" s="20">
+        <v>2.2881766529221694E-6</v>
+      </c>
+      <c r="J24" s="19">
         <v>2.2881766529221693E-3</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>3.45</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="L24" s="11" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J24">
-    <sortCondition ref="J2:J24"/>
-    <sortCondition ref="C2:C24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L24">
+    <sortCondition ref="E2:E24"/>
+    <sortCondition ref="D2:D24"/>
     <sortCondition ref="A2:A24"/>
-    <sortCondition ref="B2:B24"/>
+    <sortCondition ref="L2:L24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10315D98-AAB3-4EAB-B28A-8EAA353614A4}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="29.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.36328125" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f60d4be9-3557-4154-8f7f-0f7fc20459a7" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8b6ba10b-a228-4f4d-bf61-76f051627eb1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C2CC601CF85AD4AAE2E8C1628370B4C" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="81d43700bbd5370bc97db83268c40a77">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b6ba10b-a228-4f4d-bf61-76f051627eb1" xmlns:ns3="4fa31878-c15f-4cc2-b832-57ca6f3405c8" xmlns:ns4="f60d4be9-3557-4154-8f7f-0f7fc20459a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f4e98d2ff7a2a20f42e5462f46da254" ns2:_="" ns3:_="" ns4:_="">
-    <xsd:import namespace="8b6ba10b-a228-4f4d-bf61-76f051627eb1"/>
-    <xsd:import namespace="4fa31878-c15f-4cc2-b832-57ca6f3405c8"/>
-    <xsd:import namespace="f60d4be9-3557-4154-8f7f-0f7fc20459a7"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8b6ba10b-a228-4f4d-bf61-76f051627eb1" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="18" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="651b62a4-9796-44f9-b2a5-9cb121c10878" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4fa31878-c15f-4cc2-b832-57ca6f3405c8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f60d4be9-3557-4154-8f7f-0f7fc20459a7" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="19" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{53AE285A-9A54-4D2A-BF5C-7F73A3319EAF}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="{4fa31878-c15f-4cc2-b832-57ca6f3405c8}">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A28BCB82-B19B-40E1-B28A-C88C432E9E76}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f60d4be9-3557-4154-8f7f-0f7fc20459a7"/>
-    <ds:schemaRef ds:uri="8b6ba10b-a228-4f4d-bf61-76f051627eb1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0729A755-291E-41BA-9294-BC6B287B27E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C616E55-3991-414A-8908-CAE83A32AFEE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8b6ba10b-a228-4f4d-bf61-76f051627eb1"/>
-    <ds:schemaRef ds:uri="4fa31878-c15f-4cc2-b832-57ca6f3405c8"/>
-    <ds:schemaRef ds:uri="f60d4be9-3557-4154-8f7f-0f7fc20459a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>